--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="C2" t="n">
-        <v>41.18</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>5.88</v>
+        <v>7.41</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>85.98</v>
       </c>
       <c r="F2" t="n">
-        <v>88.23999999999999</v>
+        <v>50.78</v>
       </c>
       <c r="G2" t="n">
-        <v>94.12</v>
+        <v>97.31</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>89.14</v>
       </c>
       <c r="I2" t="n">
-        <v>11.76</v>
+        <v>57.56</v>
       </c>
       <c r="J2" t="n">
-        <v>76.47</v>
+        <v>45.77</v>
       </c>
       <c r="K2" t="n">
-        <v>41.18</v>
+        <v>19.16</v>
       </c>
       <c r="L2" t="n">
-        <v>11.76</v>
+        <v>9.31</v>
       </c>
       <c r="M2" t="n">
-        <v>82.34999999999999</v>
+        <v>55.79</v>
       </c>
       <c r="N2" t="n">
-        <v>35.29</v>
+        <v>14.65</v>
       </c>
       <c r="O2" t="n">
-        <v>35.29</v>
+        <v>56.76</v>
       </c>
       <c r="P2" t="n">
-        <v>94.12</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="3">
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="C3" t="n">
-        <v>68.75</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>13.06</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>84.11</v>
       </c>
       <c r="F3" t="n">
-        <v>93.75</v>
+        <v>49.79</v>
       </c>
       <c r="G3" t="n">
-        <v>87.5</v>
+        <v>96.33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>90.25</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>57.13</v>
       </c>
       <c r="J3" t="n">
-        <v>56.25</v>
+        <v>40.18</v>
       </c>
       <c r="K3" t="n">
-        <v>31.25</v>
+        <v>18.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="M3" t="n">
-        <v>75</v>
+        <v>51.69</v>
       </c>
       <c r="N3" t="n">
-        <v>56.25</v>
+        <v>12.43</v>
       </c>
       <c r="O3" t="n">
-        <v>12.5</v>
+        <v>58.19</v>
       </c>
       <c r="P3" t="n">
-        <v>100</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="C4" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>82.27</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>52.17</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>55.85</v>
       </c>
       <c r="J4" t="n">
-        <v>54.55</v>
+        <v>42.14</v>
       </c>
       <c r="K4" t="n">
-        <v>27.27</v>
+        <v>16.39</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>72.73</v>
+        <v>48.83</v>
       </c>
       <c r="N4" t="n">
-        <v>36.36</v>
+        <v>13.04</v>
       </c>
       <c r="O4" t="n">
-        <v>18.18</v>
+        <v>61.87</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>97.66</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>12.26</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>88.12</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>56.13</v>
       </c>
       <c r="G5" t="n">
-        <v>85</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>87.36</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>49.23</v>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>45.21</v>
       </c>
       <c r="K5" t="n">
-        <v>55</v>
+        <v>22.41</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="M5" t="n">
-        <v>85</v>
+        <v>52.49</v>
       </c>
       <c r="N5" t="n">
-        <v>25</v>
+        <v>13.79</v>
       </c>
       <c r="O5" t="n">
-        <v>35</v>
+        <v>53.26</v>
       </c>
       <c r="P5" t="n">
-        <v>85</v>
+        <v>96.73999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -725,49 +725,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="C6" t="n">
-        <v>28.95</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>7.89</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>98.68000000000001</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>90.79000000000001</v>
+        <v>47.59</v>
       </c>
       <c r="G6" t="n">
-        <v>97.37</v>
+        <v>98.84</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>89.02</v>
       </c>
       <c r="I6" t="n">
-        <v>1.32</v>
+        <v>53.76</v>
       </c>
       <c r="J6" t="n">
-        <v>57.89</v>
+        <v>39.5</v>
       </c>
       <c r="K6" t="n">
-        <v>63.16</v>
+        <v>24.08</v>
       </c>
       <c r="L6" t="n">
-        <v>14.47</v>
+        <v>9.44</v>
       </c>
       <c r="M6" t="n">
-        <v>67.11</v>
+        <v>42.2</v>
       </c>
       <c r="N6" t="n">
-        <v>42.11</v>
+        <v>16.38</v>
       </c>
       <c r="O6" t="n">
-        <v>18.42</v>
+        <v>57.23</v>
       </c>
       <c r="P6" t="n">
-        <v>88.16</v>
+        <v>96.53</v>
       </c>
     </row>
     <row r="7">
@@ -777,153 +777,153 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="C7" t="n">
-        <v>42.59</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>7.41</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>90.73999999999999</v>
+        <v>84.25</v>
       </c>
       <c r="F7" t="n">
-        <v>87.04000000000001</v>
+        <v>48.03</v>
       </c>
       <c r="G7" t="n">
-        <v>98.15000000000001</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>91.47</v>
       </c>
       <c r="I7" t="n">
-        <v>9.26</v>
+        <v>62.07</v>
       </c>
       <c r="J7" t="n">
-        <v>59.26</v>
+        <v>43.31</v>
       </c>
       <c r="K7" t="n">
-        <v>53.7</v>
+        <v>21.26</v>
       </c>
       <c r="L7" t="n">
-        <v>18.52</v>
+        <v>9.06</v>
       </c>
       <c r="M7" t="n">
-        <v>77.78</v>
+        <v>54.2</v>
       </c>
       <c r="N7" t="n">
-        <v>50</v>
+        <v>16.93</v>
       </c>
       <c r="O7" t="n">
-        <v>29.63</v>
+        <v>58.01</v>
       </c>
       <c r="P7" t="n">
-        <v>85.19</v>
+        <v>96.45999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.25</v>
+        <v>5.14</v>
       </c>
       <c r="C8" t="n">
-        <v>57.29</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>14.82</v>
+        <v>14.41</v>
       </c>
       <c r="E8" t="n">
-        <v>98.98999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="F8" t="n">
-        <v>93.47</v>
+        <v>68.72</v>
       </c>
       <c r="G8" t="n">
-        <v>92.95999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>93.05</v>
       </c>
       <c r="I8" t="n">
-        <v>6.53</v>
+        <v>51.63</v>
       </c>
       <c r="J8" t="n">
-        <v>70.34999999999999</v>
+        <v>53.37</v>
       </c>
       <c r="K8" t="n">
-        <v>59.8</v>
+        <v>32.95</v>
       </c>
       <c r="L8" t="n">
-        <v>29.65</v>
+        <v>21.65</v>
       </c>
       <c r="M8" t="n">
-        <v>96.48</v>
+        <v>77.7</v>
       </c>
       <c r="N8" t="n">
-        <v>59.05</v>
+        <v>28.75</v>
       </c>
       <c r="O8" t="n">
-        <v>23.12</v>
+        <v>54.24</v>
       </c>
       <c r="P8" t="n">
-        <v>93.97</v>
+        <v>96.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Espírito Santo</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="C9" t="n">
-        <v>42.86</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>9.52</v>
+        <v>10.4</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>85.70999999999999</v>
+        <v>49.78</v>
       </c>
       <c r="G9" t="n">
-        <v>90.48</v>
+        <v>98.67</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>9.52</v>
+        <v>67.7</v>
       </c>
       <c r="J9" t="n">
-        <v>42.86</v>
+        <v>41.37</v>
       </c>
       <c r="K9" t="n">
-        <v>33.33</v>
+        <v>16.15</v>
       </c>
       <c r="L9" t="n">
-        <v>23.81</v>
+        <v>7.96</v>
       </c>
       <c r="M9" t="n">
-        <v>71.43000000000001</v>
+        <v>50.88</v>
       </c>
       <c r="N9" t="n">
-        <v>52.38</v>
+        <v>13.94</v>
       </c>
       <c r="O9" t="n">
-        <v>33.33</v>
+        <v>58.85</v>
       </c>
       <c r="P9" t="n">
-        <v>90.48</v>
+        <v>98.89</v>
       </c>
     </row>
     <row r="10">
@@ -933,49 +933,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="C10" t="n">
-        <v>86.67</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>1.67</v>
+        <v>5.97</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>84.78</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>50.47</v>
       </c>
       <c r="G10" t="n">
-        <v>83.33</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>88.41</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>55.5</v>
       </c>
       <c r="J10" t="n">
-        <v>53.33</v>
+        <v>46.02</v>
       </c>
       <c r="K10" t="n">
-        <v>63.33</v>
+        <v>18.85</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>11.01</v>
       </c>
       <c r="M10" t="n">
-        <v>88.33</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>35</v>
+        <v>14.52</v>
       </c>
       <c r="O10" t="n">
-        <v>18.33</v>
+        <v>58.55</v>
       </c>
       <c r="P10" t="n">
-        <v>100</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -988,202 +988,202 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>23.81</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>79.37</v>
       </c>
       <c r="F11" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="G11" t="n">
         <v>95.23999999999999</v>
       </c>
-      <c r="G11" t="n">
-        <v>85.70999999999999</v>
-      </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>92.06</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="J11" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M11" t="n">
         <v>38.1</v>
       </c>
-      <c r="K11" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="M11" t="n">
-        <v>71.43000000000001</v>
-      </c>
       <c r="N11" t="n">
-        <v>47.62</v>
+        <v>17.46</v>
       </c>
       <c r="O11" t="n">
-        <v>23.81</v>
+        <v>44.44</v>
       </c>
       <c r="P11" t="n">
-        <v>80.95</v>
+        <v>93.65000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="C12" t="n">
-        <v>76.39</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>9.720000000000001</v>
+        <v>7.32</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>91.33</v>
       </c>
       <c r="F12" t="n">
-        <v>72.22</v>
+        <v>44.17</v>
       </c>
       <c r="G12" t="n">
-        <v>88.89</v>
+        <v>97.56</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>79.67</v>
       </c>
       <c r="I12" t="n">
-        <v>11.11</v>
+        <v>52.57</v>
       </c>
       <c r="J12" t="n">
-        <v>52.78</v>
+        <v>37.67</v>
       </c>
       <c r="K12" t="n">
-        <v>43.06</v>
+        <v>15.45</v>
       </c>
       <c r="L12" t="n">
-        <v>15.28</v>
+        <v>7.05</v>
       </c>
       <c r="M12" t="n">
-        <v>76.39</v>
+        <v>49.59</v>
       </c>
       <c r="N12" t="n">
-        <v>31.94</v>
+        <v>10.03</v>
       </c>
       <c r="O12" t="n">
-        <v>22.22</v>
+        <v>57.45</v>
       </c>
       <c r="P12" t="n">
-        <v>77.78</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="C13" t="n">
-        <v>62.07</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>13.79</v>
+        <v>16.31</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>79.31</v>
+        <v>57.45</v>
       </c>
       <c r="G13" t="n">
-        <v>89.66</v>
+        <v>96.45</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>90.78</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.28</v>
       </c>
       <c r="J13" t="n">
-        <v>37.93</v>
+        <v>42.55</v>
       </c>
       <c r="K13" t="n">
-        <v>44.83</v>
+        <v>17.73</v>
       </c>
       <c r="L13" t="n">
-        <v>3.45</v>
+        <v>4.96</v>
       </c>
       <c r="M13" t="n">
-        <v>68.97</v>
+        <v>46.81</v>
       </c>
       <c r="N13" t="n">
-        <v>24.14</v>
+        <v>9.93</v>
       </c>
       <c r="O13" t="n">
-        <v>3.45</v>
+        <v>54.61</v>
       </c>
       <c r="P13" t="n">
-        <v>96.55</v>
+        <v>99.29000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.88</v>
+        <v>1.64</v>
       </c>
       <c r="C14" t="n">
-        <v>52.94</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>86.89</v>
       </c>
       <c r="F14" t="n">
-        <v>82.34999999999999</v>
+        <v>47.54</v>
       </c>
       <c r="G14" t="n">
-        <v>88.23999999999999</v>
+        <v>96.72</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>95.08</v>
       </c>
       <c r="I14" t="n">
-        <v>5.88</v>
+        <v>54.1</v>
       </c>
       <c r="J14" t="n">
-        <v>70.59</v>
+        <v>42.62</v>
       </c>
       <c r="K14" t="n">
-        <v>70.59</v>
+        <v>29.51</v>
       </c>
       <c r="L14" t="n">
-        <v>23.53</v>
+        <v>16.39</v>
       </c>
       <c r="M14" t="n">
-        <v>70.59</v>
+        <v>54.1</v>
       </c>
       <c r="N14" t="n">
-        <v>52.94</v>
+        <v>21.31</v>
       </c>
       <c r="O14" t="n">
-        <v>23.53</v>
+        <v>60.66</v>
       </c>
       <c r="P14" t="n">
-        <v>88.23999999999999</v>
+        <v>95.08</v>
       </c>
     </row>
     <row r="15">
@@ -1193,49 +1193,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="C15" t="n">
-        <v>67.8</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>8.470000000000001</v>
+        <v>7.44</v>
       </c>
       <c r="E15" t="n">
-        <v>98.31</v>
+        <v>89.77</v>
       </c>
       <c r="F15" t="n">
-        <v>81.36</v>
+        <v>53.02</v>
       </c>
       <c r="G15" t="n">
-        <v>88.14</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>5.08</v>
+        <v>58.14</v>
       </c>
       <c r="J15" t="n">
-        <v>62.71</v>
+        <v>46.51</v>
       </c>
       <c r="K15" t="n">
-        <v>69.48999999999999</v>
+        <v>23.72</v>
       </c>
       <c r="L15" t="n">
-        <v>18.64</v>
+        <v>12.56</v>
       </c>
       <c r="M15" t="n">
-        <v>62.71</v>
+        <v>47.44</v>
       </c>
       <c r="N15" t="n">
-        <v>33.9</v>
+        <v>14.42</v>
       </c>
       <c r="O15" t="n">
-        <v>10.17</v>
+        <v>55.81</v>
       </c>
       <c r="P15" t="n">
-        <v>89.83</v>
+        <v>96.73999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1245,49 +1245,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="C16" t="n">
-        <v>38.89</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="E16" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="G16" t="n">
+        <v>97.78</v>
+      </c>
+      <c r="H16" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="I16" t="n">
+        <v>67.78</v>
+      </c>
+      <c r="J16" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="P16" t="n">
         <v>94.44</v>
-      </c>
-      <c r="F16" t="n">
-        <v>88.89</v>
-      </c>
-      <c r="G16" t="n">
-        <v>88.89</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="M16" t="n">
-        <v>72.22</v>
-      </c>
-      <c r="N16" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="O16" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>88.89</v>
       </c>
     </row>
     <row r="17">
@@ -1297,49 +1297,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="C17" t="n">
-        <v>56.76</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>8.109999999999999</v>
+        <v>11.41</v>
       </c>
       <c r="E17" t="n">
-        <v>94.59</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>85.14</v>
+        <v>55.51</v>
       </c>
       <c r="G17" t="n">
-        <v>87.84</v>
+        <v>96.58</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>91.25</v>
       </c>
       <c r="I17" t="n">
-        <v>8.109999999999999</v>
+        <v>61.98</v>
       </c>
       <c r="J17" t="n">
-        <v>67.56999999999999</v>
+        <v>55.51</v>
       </c>
       <c r="K17" t="n">
-        <v>59.46</v>
+        <v>24.33</v>
       </c>
       <c r="L17" t="n">
-        <v>18.92</v>
+        <v>13.31</v>
       </c>
       <c r="M17" t="n">
-        <v>87.84</v>
+        <v>60.84</v>
       </c>
       <c r="N17" t="n">
-        <v>52.7</v>
+        <v>22.05</v>
       </c>
       <c r="O17" t="n">
-        <v>24.32</v>
+        <v>57.79</v>
       </c>
       <c r="P17" t="n">
-        <v>91.89</v>
+        <v>96.95999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1349,49 +1349,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>3.49</v>
+        <v>3.88</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>94.66</v>
       </c>
       <c r="F18" t="n">
-        <v>58.14</v>
+        <v>39.81</v>
       </c>
       <c r="G18" t="n">
-        <v>96.51000000000001</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>97.56999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>4.65</v>
+        <v>48.54</v>
       </c>
       <c r="J18" t="n">
-        <v>48.84</v>
+        <v>33.5</v>
       </c>
       <c r="K18" t="n">
-        <v>48.84</v>
+        <v>22.33</v>
       </c>
       <c r="L18" t="n">
-        <v>3.49</v>
+        <v>2.91</v>
       </c>
       <c r="M18" t="n">
-        <v>39.53</v>
+        <v>30.58</v>
       </c>
       <c r="N18" t="n">
-        <v>27.91</v>
+        <v>13.11</v>
       </c>
       <c r="O18" t="n">
-        <v>11.63</v>
+        <v>42.72</v>
       </c>
       <c r="P18" t="n">
-        <v>97.67</v>
+        <v>99.03</v>
       </c>
     </row>
     <row r="19">
@@ -1401,205 +1401,205 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="C19" t="n">
-        <v>75.56</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>8.890000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>82.22</v>
+        <v>48.94</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56</v>
+        <v>98.58</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>4.44</v>
+        <v>66.67</v>
       </c>
       <c r="J19" t="n">
-        <v>66.67</v>
+        <v>47.16</v>
       </c>
       <c r="K19" t="n">
-        <v>66.67</v>
+        <v>16.67</v>
       </c>
       <c r="L19" t="n">
-        <v>8.890000000000001</v>
+        <v>5.67</v>
       </c>
       <c r="M19" t="n">
-        <v>88.89</v>
+        <v>52.48</v>
       </c>
       <c r="N19" t="n">
-        <v>51.11</v>
+        <v>13.48</v>
       </c>
       <c r="O19" t="n">
-        <v>17.78</v>
+        <v>55.32</v>
       </c>
       <c r="P19" t="n">
-        <v>95.56</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="C20" t="n">
-        <v>78.45</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>6.9</v>
+        <v>4.79</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>83.05</v>
       </c>
       <c r="F20" t="n">
-        <v>84.48</v>
+        <v>55.14</v>
       </c>
       <c r="G20" t="n">
-        <v>87.06999999999999</v>
+        <v>96.92</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>5.17</v>
+        <v>54.97</v>
       </c>
       <c r="J20" t="n">
-        <v>56.03</v>
+        <v>51.03</v>
       </c>
       <c r="K20" t="n">
-        <v>50</v>
+        <v>17.81</v>
       </c>
       <c r="L20" t="n">
-        <v>21.55</v>
+        <v>12.84</v>
       </c>
       <c r="M20" t="n">
-        <v>88.79000000000001</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>42.24</v>
+        <v>14.73</v>
       </c>
       <c r="O20" t="n">
-        <v>19.83</v>
+        <v>60.27</v>
       </c>
       <c r="P20" t="n">
-        <v>95.69</v>
+        <v>98.29000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>RN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="C21" t="n">
-        <v>59.09</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>18.18</v>
+        <v>13.1</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="F21" t="n">
-        <v>86.36</v>
+        <v>46.43</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>90.48</v>
       </c>
       <c r="I21" t="n">
-        <v>9.09</v>
+        <v>55.95</v>
       </c>
       <c r="J21" t="n">
-        <v>59.09</v>
+        <v>41.67</v>
       </c>
       <c r="K21" t="n">
-        <v>63.64</v>
+        <v>28.57</v>
       </c>
       <c r="L21" t="n">
-        <v>9.09</v>
+        <v>11.9</v>
       </c>
       <c r="M21" t="n">
-        <v>81.81999999999999</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>27.27</v>
+        <v>14.29</v>
       </c>
       <c r="O21" t="n">
-        <v>36.36</v>
+        <v>65.48</v>
       </c>
       <c r="P21" t="n">
-        <v>86.36</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.56</v>
+        <v>1.12</v>
       </c>
       <c r="C22" t="n">
-        <v>51.28</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>28.21</v>
+        <v>16.29</v>
       </c>
       <c r="E22" t="n">
-        <v>97.44</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>79.48999999999999</v>
+        <v>51.69</v>
       </c>
       <c r="G22" t="n">
-        <v>79.48999999999999</v>
+        <v>94.94</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>90.45</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.55</v>
       </c>
       <c r="J22" t="n">
-        <v>64.09999999999999</v>
+        <v>40.45</v>
       </c>
       <c r="K22" t="n">
-        <v>53.85</v>
+        <v>14.61</v>
       </c>
       <c r="L22" t="n">
-        <v>12.82</v>
+        <v>6.18</v>
       </c>
       <c r="M22" t="n">
-        <v>79.48999999999999</v>
+        <v>47.19</v>
       </c>
       <c r="N22" t="n">
-        <v>41.03</v>
+        <v>10.11</v>
       </c>
       <c r="O22" t="n">
-        <v>20.51</v>
+        <v>62.92</v>
       </c>
       <c r="P22" t="n">
-        <v>97.44</v>
+        <v>99.44</v>
       </c>
     </row>
     <row r="23">
@@ -1609,46 +1609,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>21.43</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>90.48</v>
       </c>
       <c r="F23" t="n">
-        <v>75</v>
+        <v>52.38</v>
       </c>
       <c r="G23" t="n">
         <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>40.48</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="L23" t="n">
-        <v>25</v>
+        <v>9.52</v>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>52.38</v>
       </c>
       <c r="N23" t="n">
-        <v>50</v>
+        <v>11.9</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>73.81</v>
       </c>
       <c r="P23" t="n">
         <v>100</v>
@@ -1661,46 +1661,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="C24" t="n">
-        <v>64.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>7.14</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>89.66</v>
       </c>
       <c r="F24" t="n">
-        <v>85.70999999999999</v>
+        <v>55.17</v>
       </c>
       <c r="G24" t="n">
-        <v>92.86</v>
+        <v>94.83</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>96.55</v>
       </c>
       <c r="I24" t="n">
-        <v>7.14</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>42.86</v>
+        <v>41.38</v>
       </c>
       <c r="K24" t="n">
-        <v>35.71</v>
+        <v>17.24</v>
       </c>
       <c r="L24" t="n">
-        <v>28.57</v>
+        <v>17.24</v>
       </c>
       <c r="M24" t="n">
-        <v>92.86</v>
+        <v>74.14</v>
       </c>
       <c r="N24" t="n">
-        <v>57.14</v>
+        <v>18.97</v>
       </c>
       <c r="O24" t="n">
-        <v>42.86</v>
+        <v>58.62</v>
       </c>
       <c r="P24" t="n">
         <v>100</v>
@@ -1709,53 +1709,53 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.19</v>
+        <v>2.69</v>
       </c>
       <c r="C25" t="n">
-        <v>82.14</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>15.38</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>89.23</v>
       </c>
       <c r="F25" t="n">
-        <v>83.33</v>
+        <v>55.77</v>
       </c>
       <c r="G25" t="n">
-        <v>70.23999999999999</v>
+        <v>90</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>1.19</v>
+        <v>42.31</v>
       </c>
       <c r="J25" t="n">
-        <v>58.33</v>
+        <v>41.15</v>
       </c>
       <c r="K25" t="n">
-        <v>46.43</v>
+        <v>19.62</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="M25" t="n">
-        <v>95.23999999999999</v>
+        <v>53.46</v>
       </c>
       <c r="N25" t="n">
-        <v>26.19</v>
+        <v>12.31</v>
       </c>
       <c r="O25" t="n">
-        <v>11.9</v>
+        <v>50.38</v>
       </c>
       <c r="P25" t="n">
-        <v>94.05</v>
+        <v>97.31</v>
       </c>
     </row>
     <row r="26">
@@ -1765,101 +1765,101 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="C26" t="n">
-        <v>47.92</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>2.08</v>
+        <v>9.66</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>89.2</v>
       </c>
       <c r="F26" t="n">
-        <v>81.25</v>
+        <v>45.45</v>
       </c>
       <c r="G26" t="n">
-        <v>95.83</v>
+        <v>98.86</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>92.05</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>50</v>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>40.34</v>
       </c>
       <c r="K26" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="M26" t="n">
+        <v>47.16</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="O26" t="n">
         <v>56.25</v>
       </c>
-      <c r="L26" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="M26" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.75</v>
-      </c>
       <c r="P26" t="n">
-        <v>91.67</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="C27" t="n">
-        <v>62.96</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>9.26</v>
+        <v>7.85</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>80.06</v>
       </c>
       <c r="F27" t="n">
-        <v>77.78</v>
+        <v>38.37</v>
       </c>
       <c r="G27" t="n">
-        <v>96.3</v>
+        <v>99.09</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>90.33</v>
       </c>
       <c r="I27" t="n">
-        <v>1.85</v>
+        <v>63.75</v>
       </c>
       <c r="J27" t="n">
-        <v>53.7</v>
+        <v>32.33</v>
       </c>
       <c r="K27" t="n">
-        <v>70.37</v>
+        <v>16.01</v>
       </c>
       <c r="L27" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="M27" t="n">
-        <v>85.19</v>
+        <v>47.13</v>
       </c>
       <c r="N27" t="n">
-        <v>42.59</v>
+        <v>10.27</v>
       </c>
       <c r="O27" t="n">
-        <v>12.96</v>
+        <v>58.31</v>
       </c>
       <c r="P27" t="n">
-        <v>81.48</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="28">
@@ -1869,49 +1869,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.77</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>6.25</v>
+        <v>10.53</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>81.25</v>
+        <v>56.14</v>
       </c>
       <c r="G28" t="n">
-        <v>93.75</v>
+        <v>98.25</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>91.23</v>
       </c>
       <c r="I28" t="n">
-        <v>6.25</v>
+        <v>47.37</v>
       </c>
       <c r="J28" t="n">
-        <v>75</v>
+        <v>47.37</v>
       </c>
       <c r="K28" t="n">
-        <v>56.25</v>
+        <v>31.58</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>14.04</v>
       </c>
       <c r="M28" t="n">
-        <v>93.75</v>
+        <v>57.89</v>
       </c>
       <c r="N28" t="n">
-        <v>50</v>
+        <v>24.56</v>
       </c>
       <c r="O28" t="n">
-        <v>25</v>
+        <v>50.88</v>
       </c>
       <c r="P28" t="n">
-        <v>81.25</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1921,49 +1921,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.31</v>
+        <v>3.74</v>
       </c>
       <c r="C29" t="n">
-        <v>56.97</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>10.15</v>
+        <v>10.34</v>
       </c>
       <c r="E29" t="n">
-        <v>98.95999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>82.81999999999999</v>
+        <v>55.16</v>
       </c>
       <c r="G29" t="n">
-        <v>88.69</v>
+        <v>96.42</v>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>5.26</v>
+        <v>55.11</v>
       </c>
       <c r="J29" t="n">
-        <v>57.7</v>
+        <v>45.13</v>
       </c>
       <c r="K29" t="n">
-        <v>53.42</v>
+        <v>22.83</v>
       </c>
       <c r="L29" t="n">
-        <v>16.5</v>
+        <v>11.87</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27</v>
+        <v>60.02</v>
       </c>
       <c r="N29" t="n">
-        <v>43.15</v>
+        <v>18.11</v>
       </c>
       <c r="O29" t="n">
-        <v>19.25</v>
+        <v>56.24</v>
       </c>
       <c r="P29" t="n">
-        <v>92.42</v>
+        <v>97.33</v>
       </c>
     </row>
   </sheetData>

--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.69</v>
+        <v>1.69</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>7.41</v>
+        <v>5.08</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98</v>
+        <v>83.05</v>
       </c>
       <c r="F2" t="n">
-        <v>50.78</v>
+        <v>62.71</v>
       </c>
       <c r="G2" t="n">
-        <v>97.31</v>
+        <v>96.61</v>
       </c>
       <c r="H2" t="n">
-        <v>89.14</v>
+        <v>93.22</v>
       </c>
       <c r="I2" t="n">
-        <v>57.56</v>
+        <v>52.54</v>
       </c>
       <c r="J2" t="n">
-        <v>45.77</v>
+        <v>55.93</v>
       </c>
       <c r="K2" t="n">
-        <v>19.16</v>
+        <v>20.34</v>
       </c>
       <c r="L2" t="n">
-        <v>9.31</v>
+        <v>5.08</v>
       </c>
       <c r="M2" t="n">
-        <v>55.79</v>
+        <v>64.41</v>
       </c>
       <c r="N2" t="n">
-        <v>14.65</v>
+        <v>15.25</v>
       </c>
       <c r="O2" t="n">
-        <v>56.76</v>
+        <v>59.32</v>
       </c>
       <c r="P2" t="n">
-        <v>97.39</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="3">
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>13.06</v>
+        <v>21.35</v>
       </c>
       <c r="E3" t="n">
-        <v>84.11</v>
+        <v>82.02</v>
       </c>
       <c r="F3" t="n">
-        <v>49.79</v>
+        <v>61.8</v>
       </c>
       <c r="G3" t="n">
-        <v>96.33</v>
+        <v>96.63</v>
       </c>
       <c r="H3" t="n">
-        <v>90.25</v>
+        <v>94.38</v>
       </c>
       <c r="I3" t="n">
-        <v>57.13</v>
+        <v>74.16</v>
       </c>
       <c r="J3" t="n">
-        <v>40.18</v>
+        <v>55.06</v>
       </c>
       <c r="K3" t="n">
-        <v>18.5</v>
+        <v>7.87</v>
       </c>
       <c r="L3" t="n">
-        <v>6.71</v>
+        <v>3.37</v>
       </c>
       <c r="M3" t="n">
-        <v>51.69</v>
+        <v>71.91</v>
       </c>
       <c r="N3" t="n">
-        <v>12.43</v>
+        <v>13.48</v>
       </c>
       <c r="O3" t="n">
-        <v>58.19</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>97.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.67</v>
+        <v>3.33</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7</v>
+        <v>3.33</v>
       </c>
       <c r="E4" t="n">
-        <v>82.27</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>52.17</v>
+        <v>58.33</v>
       </c>
       <c r="G4" t="n">
-        <v>95.65000000000001</v>
+        <v>96.67</v>
       </c>
       <c r="H4" t="n">
-        <v>87.29000000000001</v>
+        <v>70</v>
       </c>
       <c r="I4" t="n">
-        <v>55.85</v>
+        <v>46.67</v>
       </c>
       <c r="J4" t="n">
-        <v>42.14</v>
+        <v>46.67</v>
       </c>
       <c r="K4" t="n">
-        <v>16.39</v>
+        <v>8.33</v>
       </c>
       <c r="L4" t="n">
-        <v>8.359999999999999</v>
+        <v>6.67</v>
       </c>
       <c r="M4" t="n">
-        <v>48.83</v>
+        <v>48.33</v>
       </c>
       <c r="N4" t="n">
-        <v>13.04</v>
+        <v>13.33</v>
       </c>
       <c r="O4" t="n">
-        <v>61.87</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
-        <v>97.66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.07</v>
+        <v>4.26</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>12.26</v>
+        <v>17.02</v>
       </c>
       <c r="E5" t="n">
-        <v>88.12</v>
+        <v>74.47</v>
       </c>
       <c r="F5" t="n">
-        <v>56.13</v>
+        <v>72.34</v>
       </c>
       <c r="G5" t="n">
-        <v>93.09999999999999</v>
+        <v>93.62</v>
       </c>
       <c r="H5" t="n">
-        <v>87.36</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>49.23</v>
+        <v>46.81</v>
       </c>
       <c r="J5" t="n">
-        <v>45.21</v>
+        <v>61.7</v>
       </c>
       <c r="K5" t="n">
-        <v>22.41</v>
+        <v>31.91</v>
       </c>
       <c r="L5" t="n">
-        <v>7.85</v>
+        <v>8.51</v>
       </c>
       <c r="M5" t="n">
-        <v>52.49</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>13.79</v>
+        <v>19.15</v>
       </c>
       <c r="O5" t="n">
-        <v>53.26</v>
+        <v>57.45</v>
       </c>
       <c r="P5" t="n">
-        <v>96.73999999999999</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="6">
@@ -725,49 +725,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.39</v>
+        <v>3.16</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>8.289999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="E6" t="n">
-        <v>82.84999999999999</v>
+        <v>79.05</v>
       </c>
       <c r="F6" t="n">
-        <v>47.59</v>
+        <v>50.59</v>
       </c>
       <c r="G6" t="n">
-        <v>98.84</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>89.02</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>53.76</v>
+        <v>51.38</v>
       </c>
       <c r="J6" t="n">
-        <v>39.5</v>
+        <v>34.39</v>
       </c>
       <c r="K6" t="n">
-        <v>24.08</v>
+        <v>25.3</v>
       </c>
       <c r="L6" t="n">
-        <v>9.44</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>42.2</v>
+        <v>36.36</v>
       </c>
       <c r="N6" t="n">
-        <v>16.38</v>
+        <v>16.6</v>
       </c>
       <c r="O6" t="n">
-        <v>57.23</v>
+        <v>54.55</v>
       </c>
       <c r="P6" t="n">
-        <v>96.53</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="7">
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.28</v>
+        <v>4.17</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>8.789999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="E7" t="n">
-        <v>84.25</v>
+        <v>86.31</v>
       </c>
       <c r="F7" t="n">
-        <v>48.03</v>
+        <v>55.36</v>
       </c>
       <c r="G7" t="n">
-        <v>98.29000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>91.47</v>
+        <v>94.05</v>
       </c>
       <c r="I7" t="n">
-        <v>62.07</v>
+        <v>58.93</v>
       </c>
       <c r="J7" t="n">
-        <v>43.31</v>
+        <v>45.83</v>
       </c>
       <c r="K7" t="n">
-        <v>21.26</v>
+        <v>26.79</v>
       </c>
       <c r="L7" t="n">
-        <v>9.06</v>
+        <v>11.9</v>
       </c>
       <c r="M7" t="n">
-        <v>54.2</v>
+        <v>57.74</v>
       </c>
       <c r="N7" t="n">
-        <v>16.93</v>
+        <v>22.02</v>
       </c>
       <c r="O7" t="n">
-        <v>58.01</v>
+        <v>57.74</v>
       </c>
       <c r="P7" t="n">
-        <v>96.45999999999999</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="8">
@@ -829,49 +829,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.14</v>
+        <v>5.81</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>14.41</v>
+        <v>16.55</v>
       </c>
       <c r="E8" t="n">
-        <v>93.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>68.72</v>
+        <v>74.69</v>
       </c>
       <c r="G8" t="n">
-        <v>97.09999999999999</v>
+        <v>96.78</v>
       </c>
       <c r="H8" t="n">
-        <v>93.05</v>
+        <v>92.31</v>
       </c>
       <c r="I8" t="n">
-        <v>51.63</v>
+        <v>52.42</v>
       </c>
       <c r="J8" t="n">
-        <v>53.37</v>
+        <v>57.33</v>
       </c>
       <c r="K8" t="n">
-        <v>32.95</v>
+        <v>34.97</v>
       </c>
       <c r="L8" t="n">
-        <v>21.65</v>
+        <v>25.49</v>
       </c>
       <c r="M8" t="n">
-        <v>77.7</v>
+        <v>87.39</v>
       </c>
       <c r="N8" t="n">
-        <v>28.75</v>
+        <v>31.84</v>
       </c>
       <c r="O8" t="n">
-        <v>54.24</v>
+        <v>56.53</v>
       </c>
       <c r="P8" t="n">
-        <v>96.89</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -881,49 +881,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.09</v>
+        <v>9.41</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>10.4</v>
+        <v>13.53</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>67.06</v>
       </c>
       <c r="F9" t="n">
-        <v>49.78</v>
+        <v>51.18</v>
       </c>
       <c r="G9" t="n">
-        <v>98.67</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>90.48999999999999</v>
+        <v>85.88</v>
       </c>
       <c r="I9" t="n">
-        <v>67.7</v>
+        <v>69.41</v>
       </c>
       <c r="J9" t="n">
-        <v>41.37</v>
+        <v>31.76</v>
       </c>
       <c r="K9" t="n">
-        <v>16.15</v>
+        <v>15.29</v>
       </c>
       <c r="L9" t="n">
-        <v>7.96</v>
+        <v>11.76</v>
       </c>
       <c r="M9" t="n">
-        <v>50.88</v>
+        <v>48.24</v>
       </c>
       <c r="N9" t="n">
-        <v>13.94</v>
+        <v>14.71</v>
       </c>
       <c r="O9" t="n">
-        <v>58.85</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>98.89</v>
+        <v>98.81999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -933,49 +933,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.04</v>
+        <v>4.44</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>5.97</v>
+        <v>8.52</v>
       </c>
       <c r="E10" t="n">
-        <v>84.78</v>
+        <v>88.52</v>
       </c>
       <c r="F10" t="n">
-        <v>50.47</v>
+        <v>40.37</v>
       </c>
       <c r="G10" t="n">
-        <v>96.48999999999999</v>
+        <v>95.56</v>
       </c>
       <c r="H10" t="n">
-        <v>88.41</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>55.5</v>
+        <v>56.67</v>
       </c>
       <c r="J10" t="n">
-        <v>46.02</v>
+        <v>35.19</v>
       </c>
       <c r="K10" t="n">
-        <v>18.85</v>
+        <v>21.11</v>
       </c>
       <c r="L10" t="n">
-        <v>11.01</v>
+        <v>7.04</v>
       </c>
       <c r="M10" t="n">
-        <v>66.04000000000001</v>
+        <v>45.19</v>
       </c>
       <c r="N10" t="n">
-        <v>14.52</v>
+        <v>14.07</v>
       </c>
       <c r="O10" t="n">
-        <v>58.55</v>
+        <v>54.81</v>
       </c>
       <c r="P10" t="n">
-        <v>98.70999999999999</v>
+        <v>99.63</v>
       </c>
     </row>
     <row r="11">

--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -520,7 +520,7 @@
         <v>1.69</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33.9</v>
       </c>
       <c r="D2" t="n">
         <v>5.08</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50.56</v>
       </c>
       <c r="D3" t="n">
         <v>21.35</v>
@@ -624,7 +624,7 @@
         <v>3.33</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>31.67</v>
       </c>
       <c r="D4" t="n">
         <v>3.33</v>
@@ -676,7 +676,7 @@
         <v>4.26</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>44.68</v>
       </c>
       <c r="D5" t="n">
         <v>17.02</v>
@@ -728,7 +728,7 @@
         <v>3.16</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>15.81</v>
       </c>
       <c r="D6" t="n">
         <v>7.51</v>
@@ -780,7 +780,7 @@
         <v>4.17</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>35.71</v>
       </c>
       <c r="D7" t="n">
         <v>6.55</v>
@@ -832,7 +832,7 @@
         <v>5.81</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>50.72</v>
       </c>
       <c r="D8" t="n">
         <v>16.55</v>
@@ -884,7 +884,7 @@
         <v>9.41</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>47.65</v>
       </c>
       <c r="D9" t="n">
         <v>13.53</v>
@@ -936,7 +936,7 @@
         <v>4.44</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>44.44</v>
       </c>
       <c r="D10" t="n">
         <v>8.52</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>11.11</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>2.98</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>37.4</v>
       </c>
       <c r="D12" t="n">
         <v>7.32</v>
@@ -1092,7 +1092,7 @@
         <v>2.13</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>42.55</v>
       </c>
       <c r="D13" t="n">
         <v>16.31</v>
@@ -1144,7 +1144,7 @@
         <v>1.64</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>34.43</v>
       </c>
       <c r="D14" t="n">
         <v>1.64</v>
@@ -1196,7 +1196,7 @@
         <v>3.26</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>39.53</v>
       </c>
       <c r="D15" t="n">
         <v>7.44</v>
@@ -1248,7 +1248,7 @@
         <v>6.67</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>28.89</v>
       </c>
       <c r="D16" t="n">
         <v>7.78</v>
@@ -1300,7 +1300,7 @@
         <v>4.56</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>47.15</v>
       </c>
       <c r="D17" t="n">
         <v>11.41</v>
@@ -1352,7 +1352,7 @@
         <v>0.49</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>22.33</v>
       </c>
       <c r="D18" t="n">
         <v>3.88</v>
@@ -1404,7 +1404,7 @@
         <v>2.48</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>36.88</v>
       </c>
       <c r="D19" t="n">
         <v>8.51</v>
@@ -1456,7 +1456,7 @@
         <v>2.4</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>49.14</v>
       </c>
       <c r="D20" t="n">
         <v>4.79</v>
@@ -1508,7 +1508,7 @@
         <v>4.76</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>39.29</v>
       </c>
       <c r="D21" t="n">
         <v>13.1</v>
@@ -1560,7 +1560,7 @@
         <v>1.12</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>36.52</v>
       </c>
       <c r="D22" t="n">
         <v>16.29</v>
@@ -1612,7 +1612,7 @@
         <v>2.38</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>40.48</v>
       </c>
       <c r="D23" t="n">
         <v>21.43</v>
@@ -1664,7 +1664,7 @@
         <v>5.17</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>32.76</v>
       </c>
       <c r="D24" t="n">
         <v>8.619999999999999</v>
@@ -1716,7 +1716,7 @@
         <v>2.69</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D25" t="n">
         <v>15.38</v>
@@ -1768,7 +1768,7 @@
         <v>7.95</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>30.11</v>
       </c>
       <c r="D26" t="n">
         <v>9.66</v>
@@ -1820,7 +1820,7 @@
         <v>1.81</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>32.02</v>
       </c>
       <c r="D27" t="n">
         <v>7.85</v>
@@ -1872,7 +1872,7 @@
         <v>8.77</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>29.82</v>
       </c>
       <c r="D28" t="n">
         <v>10.53</v>
@@ -1924,7 +1924,7 @@
         <v>3.74</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>40.48</v>
       </c>
       <c r="D29" t="n">
         <v>10.34</v>

--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.9</v>
+        <v>32.79</v>
       </c>
       <c r="D2" t="n">
-        <v>5.08</v>
+        <v>3.28</v>
       </c>
       <c r="E2" t="n">
-        <v>83.05</v>
+        <v>83.61</v>
       </c>
       <c r="F2" t="n">
-        <v>62.71</v>
+        <v>63.93</v>
       </c>
       <c r="G2" t="n">
-        <v>96.61</v>
+        <v>96.72</v>
       </c>
       <c r="H2" t="n">
-        <v>93.22</v>
+        <v>93.44</v>
       </c>
       <c r="I2" t="n">
-        <v>52.54</v>
+        <v>50.82</v>
       </c>
       <c r="J2" t="n">
-        <v>55.93</v>
+        <v>55.74</v>
       </c>
       <c r="K2" t="n">
-        <v>20.34</v>
+        <v>19.67</v>
       </c>
       <c r="L2" t="n">
-        <v>5.08</v>
+        <v>4.92</v>
       </c>
       <c r="M2" t="n">
-        <v>64.41</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>15.25</v>
+        <v>16.39</v>
       </c>
       <c r="O2" t="n">
-        <v>59.32</v>
+        <v>59.02</v>
       </c>
       <c r="P2" t="n">
-        <v>98.31</v>
+        <v>98.36</v>
       </c>
     </row>
     <row r="3">
@@ -572,43 +572,43 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50.56</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>21.35</v>
+        <v>21.11</v>
       </c>
       <c r="E3" t="n">
-        <v>82.02</v>
+        <v>82.22</v>
       </c>
       <c r="F3" t="n">
-        <v>61.8</v>
+        <v>62.22</v>
       </c>
       <c r="G3" t="n">
-        <v>96.63</v>
+        <v>96.67</v>
       </c>
       <c r="H3" t="n">
-        <v>94.38</v>
+        <v>94.44</v>
       </c>
       <c r="I3" t="n">
-        <v>74.16</v>
+        <v>73.33</v>
       </c>
       <c r="J3" t="n">
-        <v>55.06</v>
+        <v>54.44</v>
       </c>
       <c r="K3" t="n">
-        <v>7.87</v>
+        <v>7.78</v>
       </c>
       <c r="L3" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="M3" t="n">
-        <v>71.91</v>
+        <v>72.22</v>
       </c>
       <c r="N3" t="n">
-        <v>13.48</v>
+        <v>13.33</v>
       </c>
       <c r="O3" t="n">
-        <v>70.79000000000001</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
         <v>100</v>
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>31.67</v>
       </c>
       <c r="D4" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>80</v>
@@ -645,19 +645,19 @@
         <v>46.67</v>
       </c>
       <c r="J4" t="n">
-        <v>46.67</v>
+        <v>43.33</v>
       </c>
       <c r="K4" t="n">
-        <v>8.33</v>
+        <v>6.67</v>
       </c>
       <c r="L4" t="n">
-        <v>6.67</v>
+        <v>3.33</v>
       </c>
       <c r="M4" t="n">
-        <v>48.33</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>13.33</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>60</v>
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>44.68</v>
+        <v>43.75</v>
       </c>
       <c r="D5" t="n">
-        <v>17.02</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>74.47</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>72.34</v>
+        <v>70.83</v>
       </c>
       <c r="G5" t="n">
-        <v>93.62</v>
+        <v>93.75</v>
       </c>
       <c r="H5" t="n">
-        <v>95.73999999999999</v>
+        <v>95.83</v>
       </c>
       <c r="I5" t="n">
-        <v>46.81</v>
+        <v>45.83</v>
       </c>
       <c r="J5" t="n">
-        <v>61.7</v>
+        <v>56.25</v>
       </c>
       <c r="K5" t="n">
-        <v>31.91</v>
+        <v>29.17</v>
       </c>
       <c r="L5" t="n">
-        <v>8.51</v>
+        <v>4.17</v>
       </c>
       <c r="M5" t="n">
-        <v>70.20999999999999</v>
+        <v>64.58</v>
       </c>
       <c r="N5" t="n">
-        <v>19.15</v>
+        <v>14.58</v>
       </c>
       <c r="O5" t="n">
-        <v>57.45</v>
+        <v>54.17</v>
       </c>
       <c r="P5" t="n">
-        <v>93.62</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="6">
@@ -725,49 +725,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.81</v>
+        <v>15.75</v>
       </c>
       <c r="D6" t="n">
-        <v>7.51</v>
+        <v>4.72</v>
       </c>
       <c r="E6" t="n">
-        <v>79.05</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>50.59</v>
+        <v>50.79</v>
       </c>
       <c r="G6" t="n">
         <v>99.20999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>87.34999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>51.38</v>
+        <v>51.18</v>
       </c>
       <c r="J6" t="n">
-        <v>34.39</v>
+        <v>31.89</v>
       </c>
       <c r="K6" t="n">
-        <v>25.3</v>
+        <v>23.62</v>
       </c>
       <c r="L6" t="n">
-        <v>8.300000000000001</v>
+        <v>5.12</v>
       </c>
       <c r="M6" t="n">
-        <v>36.36</v>
+        <v>35.04</v>
       </c>
       <c r="N6" t="n">
-        <v>16.6</v>
+        <v>14.17</v>
       </c>
       <c r="O6" t="n">
-        <v>54.55</v>
+        <v>53.94</v>
       </c>
       <c r="P6" t="n">
-        <v>96.44</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="7">
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.17</v>
+        <v>0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>35.71</v>
+        <v>35.5</v>
       </c>
       <c r="D7" t="n">
-        <v>6.55</v>
+        <v>3.55</v>
       </c>
       <c r="E7" t="n">
-        <v>86.31</v>
+        <v>85.8</v>
       </c>
       <c r="F7" t="n">
-        <v>55.36</v>
+        <v>55.03</v>
       </c>
       <c r="G7" t="n">
-        <v>99.40000000000001</v>
+        <v>99.41</v>
       </c>
       <c r="H7" t="n">
-        <v>94.05</v>
+        <v>94.08</v>
       </c>
       <c r="I7" t="n">
-        <v>58.93</v>
+        <v>58.58</v>
       </c>
       <c r="J7" t="n">
-        <v>45.83</v>
+        <v>43.2</v>
       </c>
       <c r="K7" t="n">
-        <v>26.79</v>
+        <v>24.26</v>
       </c>
       <c r="L7" t="n">
-        <v>11.9</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>57.74</v>
+        <v>56.21</v>
       </c>
       <c r="N7" t="n">
-        <v>22.02</v>
+        <v>20.12</v>
       </c>
       <c r="O7" t="n">
-        <v>57.74</v>
+        <v>57.4</v>
       </c>
       <c r="P7" t="n">
-        <v>94.64</v>
+        <v>94.67</v>
       </c>
     </row>
     <row r="8">
@@ -829,49 +829,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.81</v>
+        <v>0.78</v>
       </c>
       <c r="C8" t="n">
-        <v>50.72</v>
+        <v>49.52</v>
       </c>
       <c r="D8" t="n">
-        <v>16.55</v>
+        <v>11.97</v>
       </c>
       <c r="E8" t="n">
-        <v>94.09999999999999</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>74.69</v>
+        <v>74.59</v>
       </c>
       <c r="G8" t="n">
-        <v>96.78</v>
+        <v>96.53</v>
       </c>
       <c r="H8" t="n">
-        <v>92.31</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>52.42</v>
+        <v>51</v>
       </c>
       <c r="J8" t="n">
-        <v>57.33</v>
+        <v>53.6</v>
       </c>
       <c r="K8" t="n">
-        <v>34.97</v>
+        <v>32.78</v>
       </c>
       <c r="L8" t="n">
-        <v>25.49</v>
+        <v>20.73</v>
       </c>
       <c r="M8" t="n">
-        <v>87.39</v>
+        <v>85.95</v>
       </c>
       <c r="N8" t="n">
-        <v>31.84</v>
+        <v>29.4</v>
       </c>
       <c r="O8" t="n">
-        <v>56.53</v>
+        <v>54.47</v>
       </c>
       <c r="P8" t="n">
-        <v>96.59999999999999</v>
+        <v>96.62</v>
       </c>
     </row>
     <row r="9">
@@ -881,49 +881,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.41</v>
+        <v>0.58</v>
       </c>
       <c r="C9" t="n">
-        <v>47.65</v>
+        <v>47.09</v>
       </c>
       <c r="D9" t="n">
-        <v>13.53</v>
+        <v>5.23</v>
       </c>
       <c r="E9" t="n">
-        <v>67.06</v>
+        <v>66.28</v>
       </c>
       <c r="F9" t="n">
-        <v>51.18</v>
+        <v>51.16</v>
       </c>
       <c r="G9" t="n">
-        <v>98.81999999999999</v>
+        <v>97.67</v>
       </c>
       <c r="H9" t="n">
-        <v>85.88</v>
+        <v>86.05</v>
       </c>
       <c r="I9" t="n">
-        <v>69.41</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>31.76</v>
+        <v>26.74</v>
       </c>
       <c r="K9" t="n">
-        <v>15.29</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>11.76</v>
+        <v>2.91</v>
       </c>
       <c r="M9" t="n">
-        <v>48.24</v>
+        <v>47.67</v>
       </c>
       <c r="N9" t="n">
-        <v>14.71</v>
+        <v>11.05</v>
       </c>
       <c r="O9" t="n">
-        <v>64.70999999999999</v>
+        <v>63.37</v>
       </c>
       <c r="P9" t="n">
-        <v>98.81999999999999</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="10">
@@ -933,19 +933,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>44.44</v>
       </c>
       <c r="D10" t="n">
-        <v>8.52</v>
+        <v>5.19</v>
       </c>
       <c r="E10" t="n">
-        <v>88.52</v>
+        <v>86.3</v>
       </c>
       <c r="F10" t="n">
-        <v>40.37</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
         <v>95.56</v>
@@ -957,22 +957,22 @@
         <v>56.67</v>
       </c>
       <c r="J10" t="n">
-        <v>35.19</v>
+        <v>34.07</v>
       </c>
       <c r="K10" t="n">
-        <v>21.11</v>
+        <v>18.15</v>
       </c>
       <c r="L10" t="n">
-        <v>7.04</v>
+        <v>2.59</v>
       </c>
       <c r="M10" t="n">
-        <v>45.19</v>
+        <v>43.33</v>
       </c>
       <c r="N10" t="n">
-        <v>14.07</v>
+        <v>10.74</v>
       </c>
       <c r="O10" t="n">
-        <v>54.81</v>
+        <v>53.7</v>
       </c>
       <c r="P10" t="n">
         <v>99.63</v>
@@ -988,46 +988,46 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.11</v>
+        <v>10.77</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>79.37</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>52.38</v>
+        <v>52.31</v>
       </c>
       <c r="G11" t="n">
-        <v>95.23999999999999</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>92.06</v>
+        <v>92.31</v>
       </c>
       <c r="I11" t="n">
-        <v>57.14</v>
+        <v>55.38</v>
       </c>
       <c r="J11" t="n">
-        <v>30.16</v>
+        <v>29.23</v>
       </c>
       <c r="K11" t="n">
-        <v>15.87</v>
+        <v>16.92</v>
       </c>
       <c r="L11" t="n">
-        <v>3.17</v>
+        <v>3.08</v>
       </c>
       <c r="M11" t="n">
-        <v>38.1</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>17.46</v>
+        <v>16.92</v>
       </c>
       <c r="O11" t="n">
-        <v>44.44</v>
+        <v>43.08</v>
       </c>
       <c r="P11" t="n">
-        <v>93.65000000000001</v>
+        <v>93.84999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1037,49 +1037,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>37.4</v>
+        <v>36.41</v>
       </c>
       <c r="D12" t="n">
-        <v>7.32</v>
+        <v>4.75</v>
       </c>
       <c r="E12" t="n">
-        <v>91.33</v>
+        <v>91.56</v>
       </c>
       <c r="F12" t="n">
-        <v>44.17</v>
+        <v>43.01</v>
       </c>
       <c r="G12" t="n">
-        <v>97.56</v>
+        <v>95.78</v>
       </c>
       <c r="H12" t="n">
-        <v>79.67</v>
+        <v>79.95</v>
       </c>
       <c r="I12" t="n">
-        <v>52.57</v>
+        <v>50.92</v>
       </c>
       <c r="J12" t="n">
-        <v>37.67</v>
+        <v>34.3</v>
       </c>
       <c r="K12" t="n">
-        <v>15.45</v>
+        <v>13.98</v>
       </c>
       <c r="L12" t="n">
-        <v>7.05</v>
+        <v>4.22</v>
       </c>
       <c r="M12" t="n">
-        <v>49.59</v>
+        <v>48.81</v>
       </c>
       <c r="N12" t="n">
-        <v>10.03</v>
+        <v>8.44</v>
       </c>
       <c r="O12" t="n">
-        <v>57.45</v>
+        <v>56.2</v>
       </c>
       <c r="P12" t="n">
-        <v>95.12</v>
+        <v>95.25</v>
       </c>
     </row>
     <row r="13">
@@ -1089,49 +1089,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>42.55</v>
+        <v>43.84</v>
       </c>
       <c r="D13" t="n">
-        <v>16.31</v>
+        <v>15.07</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43000000000001</v>
+        <v>80.14</v>
       </c>
       <c r="F13" t="n">
-        <v>57.45</v>
+        <v>56.85</v>
       </c>
       <c r="G13" t="n">
-        <v>96.45</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>90.78</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>60.28</v>
+        <v>58.22</v>
       </c>
       <c r="J13" t="n">
-        <v>42.55</v>
+        <v>39.04</v>
       </c>
       <c r="K13" t="n">
-        <v>17.73</v>
+        <v>15.75</v>
       </c>
       <c r="L13" t="n">
-        <v>4.96</v>
+        <v>2.74</v>
       </c>
       <c r="M13" t="n">
-        <v>46.81</v>
+        <v>44.52</v>
       </c>
       <c r="N13" t="n">
-        <v>9.93</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>54.61</v>
+        <v>52.74</v>
       </c>
       <c r="P13" t="n">
-        <v>99.29000000000001</v>
+        <v>99.31999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1141,49 +1141,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="C14" t="n">
-        <v>34.43</v>
+        <v>32.84</v>
       </c>
       <c r="D14" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="E14" t="n">
-        <v>86.89</v>
+        <v>88.06</v>
       </c>
       <c r="F14" t="n">
-        <v>47.54</v>
+        <v>47.76</v>
       </c>
       <c r="G14" t="n">
-        <v>96.72</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>95.08</v>
+        <v>95.52</v>
       </c>
       <c r="I14" t="n">
-        <v>54.1</v>
+        <v>49.25</v>
       </c>
       <c r="J14" t="n">
-        <v>42.62</v>
+        <v>44.78</v>
       </c>
       <c r="K14" t="n">
-        <v>29.51</v>
+        <v>28.36</v>
       </c>
       <c r="L14" t="n">
-        <v>16.39</v>
+        <v>17.91</v>
       </c>
       <c r="M14" t="n">
-        <v>54.1</v>
+        <v>56.72</v>
       </c>
       <c r="N14" t="n">
-        <v>21.31</v>
+        <v>22.39</v>
       </c>
       <c r="O14" t="n">
-        <v>60.66</v>
+        <v>55.22</v>
       </c>
       <c r="P14" t="n">
-        <v>95.08</v>
+        <v>95.52</v>
       </c>
     </row>
     <row r="15">
@@ -1193,49 +1193,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>39.53</v>
+        <v>41.26</v>
       </c>
       <c r="D15" t="n">
-        <v>7.44</v>
+        <v>4.04</v>
       </c>
       <c r="E15" t="n">
-        <v>89.77</v>
+        <v>90.13</v>
       </c>
       <c r="F15" t="n">
-        <v>53.02</v>
+        <v>52.47</v>
       </c>
       <c r="G15" t="n">
-        <v>96.73999999999999</v>
+        <v>95.52</v>
       </c>
       <c r="H15" t="n">
-        <v>86.51000000000001</v>
+        <v>86.55</v>
       </c>
       <c r="I15" t="n">
-        <v>58.14</v>
+        <v>55.61</v>
       </c>
       <c r="J15" t="n">
-        <v>46.51</v>
+        <v>42.15</v>
       </c>
       <c r="K15" t="n">
-        <v>23.72</v>
+        <v>21.97</v>
       </c>
       <c r="L15" t="n">
-        <v>12.56</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>47.44</v>
+        <v>46.64</v>
       </c>
       <c r="N15" t="n">
-        <v>14.42</v>
+        <v>11.66</v>
       </c>
       <c r="O15" t="n">
-        <v>55.81</v>
+        <v>52.47</v>
       </c>
       <c r="P15" t="n">
-        <v>96.73999999999999</v>
+        <v>96.86</v>
       </c>
     </row>
     <row r="16">
@@ -1245,49 +1245,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.89</v>
+        <v>30.85</v>
       </c>
       <c r="D16" t="n">
-        <v>7.78</v>
+        <v>2.13</v>
       </c>
       <c r="E16" t="n">
-        <v>81.11</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>43.33</v>
+        <v>44.68</v>
       </c>
       <c r="G16" t="n">
-        <v>97.78</v>
+        <v>97.87</v>
       </c>
       <c r="H16" t="n">
-        <v>87.78</v>
+        <v>88.3</v>
       </c>
       <c r="I16" t="n">
-        <v>67.78</v>
+        <v>64.89</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>18.89</v>
+        <v>14.89</v>
       </c>
       <c r="L16" t="n">
-        <v>11.11</v>
+        <v>4.26</v>
       </c>
       <c r="M16" t="n">
-        <v>48.89</v>
+        <v>46.81</v>
       </c>
       <c r="N16" t="n">
-        <v>21.11</v>
+        <v>18.09</v>
       </c>
       <c r="O16" t="n">
-        <v>66.67</v>
+        <v>63.83</v>
       </c>
       <c r="P16" t="n">
-        <v>94.44</v>
+        <v>94.68000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1297,49 +1297,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>47.15</v>
+        <v>46.1</v>
       </c>
       <c r="D17" t="n">
-        <v>11.41</v>
+        <v>6.69</v>
       </c>
       <c r="E17" t="n">
-        <v>88.20999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>55.51</v>
+        <v>55.39</v>
       </c>
       <c r="G17" t="n">
-        <v>96.58</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>91.25</v>
+        <v>91.08</v>
       </c>
       <c r="I17" t="n">
-        <v>61.98</v>
+        <v>60.22</v>
       </c>
       <c r="J17" t="n">
-        <v>55.51</v>
+        <v>51.67</v>
       </c>
       <c r="K17" t="n">
-        <v>24.33</v>
+        <v>22.3</v>
       </c>
       <c r="L17" t="n">
-        <v>13.31</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>60.84</v>
+        <v>60.22</v>
       </c>
       <c r="N17" t="n">
-        <v>22.05</v>
+        <v>20.82</v>
       </c>
       <c r="O17" t="n">
-        <v>57.79</v>
+        <v>56.88</v>
       </c>
       <c r="P17" t="n">
-        <v>96.95999999999999</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="18">
@@ -1349,49 +1349,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>22.33</v>
+        <v>22.01</v>
       </c>
       <c r="D18" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="E18" t="n">
-        <v>94.66</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>39.81</v>
+        <v>40.19</v>
       </c>
       <c r="G18" t="n">
-        <v>98.54000000000001</v>
+        <v>98.09</v>
       </c>
       <c r="H18" t="n">
-        <v>97.56999999999999</v>
+        <v>97.61</v>
       </c>
       <c r="I18" t="n">
-        <v>48.54</v>
+        <v>47.85</v>
       </c>
       <c r="J18" t="n">
-        <v>33.5</v>
+        <v>32.54</v>
       </c>
       <c r="K18" t="n">
-        <v>22.33</v>
+        <v>22.01</v>
       </c>
       <c r="L18" t="n">
-        <v>2.91</v>
+        <v>2.39</v>
       </c>
       <c r="M18" t="n">
-        <v>30.58</v>
+        <v>31.58</v>
       </c>
       <c r="N18" t="n">
-        <v>13.11</v>
+        <v>13.4</v>
       </c>
       <c r="O18" t="n">
-        <v>42.72</v>
+        <v>42.58</v>
       </c>
       <c r="P18" t="n">
-        <v>99.03</v>
+        <v>99.04000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>36.88</v>
       </c>
       <c r="D19" t="n">
-        <v>8.51</v>
+        <v>7.45</v>
       </c>
       <c r="E19" t="n">
         <v>79.79000000000001</v>
@@ -1425,19 +1425,19 @@
         <v>66.67</v>
       </c>
       <c r="J19" t="n">
-        <v>47.16</v>
+        <v>46.81</v>
       </c>
       <c r="K19" t="n">
-        <v>16.67</v>
+        <v>15.6</v>
       </c>
       <c r="L19" t="n">
-        <v>5.67</v>
+        <v>3.55</v>
       </c>
       <c r="M19" t="n">
-        <v>52.48</v>
+        <v>52.13</v>
       </c>
       <c r="N19" t="n">
-        <v>13.48</v>
+        <v>12.77</v>
       </c>
       <c r="O19" t="n">
         <v>55.32</v>
@@ -1453,49 +1453,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.4</v>
+        <v>0.17</v>
       </c>
       <c r="C20" t="n">
-        <v>49.14</v>
+        <v>49.15</v>
       </c>
       <c r="D20" t="n">
-        <v>4.79</v>
+        <v>3.06</v>
       </c>
       <c r="E20" t="n">
-        <v>83.05</v>
+        <v>83.16</v>
       </c>
       <c r="F20" t="n">
-        <v>55.14</v>
+        <v>55.27</v>
       </c>
       <c r="G20" t="n">
-        <v>96.92</v>
+        <v>96.94</v>
       </c>
       <c r="H20" t="n">
-        <v>89.04000000000001</v>
+        <v>89.12</v>
       </c>
       <c r="I20" t="n">
-        <v>54.97</v>
+        <v>54.59</v>
       </c>
       <c r="J20" t="n">
-        <v>51.03</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>17.81</v>
+        <v>16.84</v>
       </c>
       <c r="L20" t="n">
-        <v>12.84</v>
+        <v>10.54</v>
       </c>
       <c r="M20" t="n">
         <v>75.68000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>14.73</v>
+        <v>14.12</v>
       </c>
       <c r="O20" t="n">
-        <v>60.27</v>
+        <v>59.86</v>
       </c>
       <c r="P20" t="n">
-        <v>98.29000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="21">
@@ -1505,49 +1505,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>39.29</v>
+        <v>38.82</v>
       </c>
       <c r="D21" t="n">
-        <v>13.1</v>
+        <v>9.41</v>
       </c>
       <c r="E21" t="n">
-        <v>83.33</v>
+        <v>83.53</v>
       </c>
       <c r="F21" t="n">
-        <v>46.43</v>
+        <v>45.88</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>90.48</v>
+        <v>90.59</v>
       </c>
       <c r="I21" t="n">
-        <v>55.95</v>
+        <v>55.29</v>
       </c>
       <c r="J21" t="n">
-        <v>41.67</v>
+        <v>38.82</v>
       </c>
       <c r="K21" t="n">
-        <v>28.57</v>
+        <v>27.06</v>
       </c>
       <c r="L21" t="n">
-        <v>11.9</v>
+        <v>7.06</v>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>50.59</v>
       </c>
       <c r="N21" t="n">
-        <v>14.29</v>
+        <v>10.59</v>
       </c>
       <c r="O21" t="n">
-        <v>65.48</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>96.43000000000001</v>
+        <v>96.47</v>
       </c>
     </row>
     <row r="22">
@@ -1557,49 +1557,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.52</v>
+        <v>37.78</v>
       </c>
       <c r="D22" t="n">
-        <v>16.29</v>
+        <v>17.78</v>
       </c>
       <c r="E22" t="n">
-        <v>81.45999999999999</v>
+        <v>91.11</v>
       </c>
       <c r="F22" t="n">
-        <v>51.69</v>
+        <v>55.56</v>
       </c>
       <c r="G22" t="n">
-        <v>94.94</v>
+        <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>90.45</v>
+        <v>84.44</v>
       </c>
       <c r="I22" t="n">
-        <v>59.55</v>
+        <v>66.67</v>
       </c>
       <c r="J22" t="n">
-        <v>40.45</v>
+        <v>42.22</v>
       </c>
       <c r="K22" t="n">
-        <v>14.61</v>
+        <v>13.33</v>
       </c>
       <c r="L22" t="n">
-        <v>6.18</v>
+        <v>6.67</v>
       </c>
       <c r="M22" t="n">
-        <v>47.19</v>
+        <v>53.33</v>
       </c>
       <c r="N22" t="n">
-        <v>10.11</v>
+        <v>13.33</v>
       </c>
       <c r="O22" t="n">
-        <v>62.92</v>
+        <v>68.89</v>
       </c>
       <c r="P22" t="n">
-        <v>99.44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1609,46 +1609,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>40.48</v>
+        <v>32.76</v>
       </c>
       <c r="D23" t="n">
-        <v>21.43</v>
+        <v>3.45</v>
       </c>
       <c r="E23" t="n">
-        <v>90.48</v>
+        <v>89.66</v>
       </c>
       <c r="F23" t="n">
-        <v>52.38</v>
+        <v>55.17</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>94.83</v>
       </c>
       <c r="H23" t="n">
-        <v>83.33</v>
+        <v>96.55</v>
       </c>
       <c r="I23" t="n">
-        <v>71.43000000000001</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>40.48</v>
+        <v>39.66</v>
       </c>
       <c r="K23" t="n">
-        <v>9.52</v>
+        <v>15.52</v>
       </c>
       <c r="L23" t="n">
-        <v>9.52</v>
+        <v>12.07</v>
       </c>
       <c r="M23" t="n">
-        <v>52.38</v>
+        <v>72.41</v>
       </c>
       <c r="N23" t="n">
-        <v>11.9</v>
+        <v>15.52</v>
       </c>
       <c r="O23" t="n">
-        <v>73.81</v>
+        <v>58.62</v>
       </c>
       <c r="P23" t="n">
         <v>100</v>
@@ -1661,49 +1661,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>32.76</v>
+        <v>36.11</v>
       </c>
       <c r="D24" t="n">
-        <v>8.619999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="E24" t="n">
-        <v>89.66</v>
+        <v>81.67</v>
       </c>
       <c r="F24" t="n">
-        <v>55.17</v>
+        <v>52.22</v>
       </c>
       <c r="G24" t="n">
-        <v>94.83</v>
+        <v>95</v>
       </c>
       <c r="H24" t="n">
-        <v>96.55</v>
+        <v>90.56</v>
       </c>
       <c r="I24" t="n">
-        <v>67.23999999999999</v>
+        <v>58.89</v>
       </c>
       <c r="J24" t="n">
-        <v>41.38</v>
+        <v>40</v>
       </c>
       <c r="K24" t="n">
-        <v>17.24</v>
+        <v>13.89</v>
       </c>
       <c r="L24" t="n">
-        <v>17.24</v>
+        <v>5.56</v>
       </c>
       <c r="M24" t="n">
-        <v>74.14</v>
+        <v>47.78</v>
       </c>
       <c r="N24" t="n">
-        <v>18.97</v>
+        <v>9.44</v>
       </c>
       <c r="O24" t="n">
-        <v>58.62</v>
+        <v>62.22</v>
       </c>
       <c r="P24" t="n">
-        <v>100</v>
+        <v>99.44</v>
       </c>
     </row>
     <row r="25">
@@ -1713,49 +1713,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.69</v>
+        <v>0.37</v>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>54.61</v>
       </c>
       <c r="D25" t="n">
-        <v>15.38</v>
+        <v>12.55</v>
       </c>
       <c r="E25" t="n">
-        <v>89.23</v>
+        <v>89.67</v>
       </c>
       <c r="F25" t="n">
-        <v>55.77</v>
+        <v>55.72</v>
       </c>
       <c r="G25" t="n">
-        <v>90</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>86.54000000000001</v>
+        <v>87.08</v>
       </c>
       <c r="I25" t="n">
-        <v>42.31</v>
+        <v>40.59</v>
       </c>
       <c r="J25" t="n">
-        <v>41.15</v>
+        <v>39.48</v>
       </c>
       <c r="K25" t="n">
-        <v>19.62</v>
+        <v>18.45</v>
       </c>
       <c r="L25" t="n">
-        <v>3.85</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>53.46</v>
+        <v>52.4</v>
       </c>
       <c r="N25" t="n">
-        <v>12.31</v>
+        <v>11.81</v>
       </c>
       <c r="O25" t="n">
-        <v>50.38</v>
+        <v>47.6</v>
       </c>
       <c r="P25" t="n">
-        <v>97.31</v>
+        <v>97.42</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.95</v>
+        <v>0.57</v>
       </c>
       <c r="C26" t="n">
         <v>30.11</v>
       </c>
       <c r="D26" t="n">
-        <v>9.66</v>
+        <v>2.84</v>
       </c>
       <c r="E26" t="n">
-        <v>89.2</v>
+        <v>86.36</v>
       </c>
       <c r="F26" t="n">
         <v>45.45</v>
@@ -1789,19 +1789,19 @@
         <v>50</v>
       </c>
       <c r="J26" t="n">
-        <v>40.34</v>
+        <v>39.2</v>
       </c>
       <c r="K26" t="n">
-        <v>25</v>
+        <v>18.18</v>
       </c>
       <c r="L26" t="n">
-        <v>10.23</v>
+        <v>2.84</v>
       </c>
       <c r="M26" t="n">
-        <v>47.16</v>
+        <v>46.02</v>
       </c>
       <c r="N26" t="n">
-        <v>13.64</v>
+        <v>8.52</v>
       </c>
       <c r="O26" t="n">
         <v>56.25</v>
@@ -1817,49 +1817,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.81</v>
+        <v>0.3</v>
       </c>
       <c r="C27" t="n">
-        <v>32.02</v>
+        <v>31.93</v>
       </c>
       <c r="D27" t="n">
-        <v>7.85</v>
+        <v>6.33</v>
       </c>
       <c r="E27" t="n">
-        <v>80.06</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>38.37</v>
+        <v>37.95</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>90.33</v>
+        <v>90.36</v>
       </c>
       <c r="I27" t="n">
-        <v>63.75</v>
+        <v>63.55</v>
       </c>
       <c r="J27" t="n">
-        <v>32.33</v>
+        <v>31.33</v>
       </c>
       <c r="K27" t="n">
-        <v>16.01</v>
+        <v>15.66</v>
       </c>
       <c r="L27" t="n">
-        <v>4.23</v>
+        <v>2.71</v>
       </c>
       <c r="M27" t="n">
-        <v>47.13</v>
+        <v>47.29</v>
       </c>
       <c r="N27" t="n">
-        <v>10.27</v>
+        <v>9.34</v>
       </c>
       <c r="O27" t="n">
-        <v>58.31</v>
+        <v>58.13</v>
       </c>
       <c r="P27" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1869,49 +1869,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.77</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>29.82</v>
+        <v>28.81</v>
       </c>
       <c r="D28" t="n">
-        <v>10.53</v>
+        <v>5.08</v>
       </c>
       <c r="E28" t="n">
-        <v>82.45999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="F28" t="n">
-        <v>56.14</v>
+        <v>54.24</v>
       </c>
       <c r="G28" t="n">
-        <v>98.25</v>
+        <v>94.92</v>
       </c>
       <c r="H28" t="n">
-        <v>91.23</v>
+        <v>89.83</v>
       </c>
       <c r="I28" t="n">
-        <v>47.37</v>
+        <v>44.07</v>
       </c>
       <c r="J28" t="n">
-        <v>47.37</v>
+        <v>38.98</v>
       </c>
       <c r="K28" t="n">
-        <v>31.58</v>
+        <v>25.42</v>
       </c>
       <c r="L28" t="n">
-        <v>14.04</v>
+        <v>5.08</v>
       </c>
       <c r="M28" t="n">
-        <v>57.89</v>
+        <v>57.63</v>
       </c>
       <c r="N28" t="n">
-        <v>24.56</v>
+        <v>16.95</v>
       </c>
       <c r="O28" t="n">
-        <v>50.88</v>
+        <v>49.15</v>
       </c>
       <c r="P28" t="n">
-        <v>94.73999999999999</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="29">
@@ -1921,49 +1921,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.74</v>
+        <v>0.29</v>
       </c>
       <c r="C29" t="n">
         <v>40.48</v>
       </c>
       <c r="D29" t="n">
-        <v>10.34</v>
+        <v>7.44</v>
       </c>
       <c r="E29" t="n">
-        <v>86.59999999999999</v>
+        <v>86.06</v>
       </c>
       <c r="F29" t="n">
-        <v>55.16</v>
+        <v>54.92</v>
       </c>
       <c r="G29" t="n">
-        <v>96.42</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>89.95999999999999</v>
+        <v>89.89</v>
       </c>
       <c r="I29" t="n">
-        <v>55.11</v>
+        <v>55.04</v>
       </c>
       <c r="J29" t="n">
-        <v>45.13</v>
+        <v>43.17</v>
       </c>
       <c r="K29" t="n">
-        <v>22.83</v>
+        <v>20.88</v>
       </c>
       <c r="L29" t="n">
-        <v>11.87</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>60.02</v>
+        <v>59.05</v>
       </c>
       <c r="N29" t="n">
-        <v>18.11</v>
+        <v>16.14</v>
       </c>
       <c r="O29" t="n">
-        <v>56.24</v>
+        <v>55.83</v>
       </c>
       <c r="P29" t="n">
-        <v>97.33</v>
+        <v>97.26000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
